--- a/4.3.5/hol.xlsx
+++ b/4.3.5/hol.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MIPT\Labs\PhysLabs4\4.3.5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D53BE99-5A45-40F3-8399-9887365EE479}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="A" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,8 +24,86 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+  <si>
+    <t>\Delta x</t>
+  </si>
+  <si>
+    <t>L_1</t>
+  </si>
+  <si>
+    <t>L_2</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>\sigma_{L_1}</t>
+  </si>
+  <si>
+    <t>\sigma_{L_2}</t>
+  </si>
+  <si>
+    <t>\sigma_{L}</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\sigma_{\lambda}</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>\sigma_{\Delta x}</t>
+  </si>
+  <si>
+    <t>\sigma_D</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>cm everywhere</t>
+  </si>
+  <si>
+    <t>\sigma_F</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>\sigma_a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>\sigma_b</t>
+  </si>
+  <si>
+    <t>\Gamma</t>
+  </si>
+  <si>
+    <t>\sigma_{\Gamma}</t>
+  </si>
+  <si>
+    <t>D'</t>
+  </si>
+  <si>
+    <t>\sigma_{D'}</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,12 +113,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +139,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +424,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <f>15.4/26</f>
+        <v>0.59230769230769231</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <f>SQRT(SUMSQ(0.1/26,15.4/26^2))</f>
+        <v>2.3103459177934483E-2</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>12.4</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>115.5</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <f>B5+B3</f>
+        <v>127.9</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2">
+        <f>B7-G4</f>
+        <v>123.60000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <f>SQRT(SUMSQ(B6,B4))</f>
+        <v>0.14142135623730953</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2">
+        <f>SQRT(SUMSQ(G5,B8))</f>
+        <v>0.17320508075688776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <f>0.0000532</f>
+        <v>5.3199999999999999E-5</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <f>0.0000001</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="4">
+        <f>G7/G4</f>
+        <v>28.744186046511633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D12" s="3"/>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="4">
+        <f>SQRT(SUMSQ(G8/G4,G7*G5/G4^2))</f>
+        <v>0.66968193554498745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <f>B7*B10/B1</f>
+        <v>1.1487745454545456E-2</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <f>SQRT(SUMSQ(B8*B10/B1,B11*B7/B1,B7*B10*B2/B1^2))</f>
+        <v>4.4878895234154307E-4</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="2">
+        <f>1.6/6</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="1">
+        <f>G14/G11</f>
+        <v>9.2772384034519942E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="2">
+        <f>SQRT(SUMSQ(0.1/6,1.6/36))</f>
+        <v>4.7466687473986288E-2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="1">
+        <f>SQRT(SUMSQ(G15/G11,G14*G12/G11^2))</f>
+        <v>1.6654341797225545E-3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/4.3.5/hol.xlsx
+++ b/4.3.5/hol.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MIPT\Labs\PhysLabs4\4.3.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D53BE99-5A45-40F3-8399-9887365EE479}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1D39AE-F998-435E-B94B-28C4FF59D81A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
+    <sheet name="B" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>\Delta x</t>
   </si>
@@ -94,6 +95,75 @@
   </si>
   <si>
     <t>\sigma_{D'}</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>\sigma_r</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>\sigma_n</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>\sigma_f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a </t>
+  </si>
+  <si>
+    <t>L'</t>
+  </si>
+  <si>
+    <t>\sigma_{L'}</t>
+  </si>
+  <si>
+    <t>r_real</t>
+  </si>
+  <si>
+    <t>\sigma_{r_real}</t>
+  </si>
+  <si>
+    <t>Пункт3</t>
+  </si>
+  <si>
+    <t>Пукнт 12</t>
+  </si>
+  <si>
+    <t>\sigma_L</t>
+  </si>
+  <si>
+    <t>dO_2</t>
+  </si>
+  <si>
+    <t>\sigma</t>
+  </si>
+  <si>
+    <t>ЛO_3</t>
+  </si>
+  <si>
+    <t>О_3Э</t>
+  </si>
+  <si>
+    <t>real  O_2</t>
+  </si>
+  <si>
+    <t>1/rO_2</t>
+  </si>
+  <si>
+    <t>\sigma_real</t>
+  </si>
+  <si>
+    <t>1/r_O3</t>
+  </si>
+  <si>
+    <t>real O_3</t>
   </si>
 </sst>
 </file>
@@ -139,12 +209,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -425,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,7 +512,7 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,8 +530,9 @@
       <c r="G1">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -470,8 +547,9 @@
       <c r="G2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -479,8 +557,9 @@
         <v>12.4</v>
       </c>
       <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -495,8 +574,9 @@
       <c r="G4">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -510,8 +590,9 @@
       <c r="G5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -519,8 +600,9 @@
         <v>0.1</v>
       </c>
       <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -536,8 +618,9 @@
         <f>B7-G4</f>
         <v>123.60000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -553,11 +636,13 @@
         <f>SQRT(SUMSQ(G5,B8))</f>
         <v>0.17320508075688776</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -566,8 +651,9 @@
         <v>5.3199999999999999E-5</v>
       </c>
       <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -583,8 +669,9 @@
         <f>G7/G4</f>
         <v>28.744186046511633</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D12" s="3"/>
       <c r="F12" t="s">
         <v>20</v>
@@ -593,8 +680,9 @@
         <f>SQRT(SUMSQ(G8/G4,G7*G5/G4^2))</f>
         <v>0.66968193554498745</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -603,8 +691,9 @@
         <v>1.1487745454545456E-2</v>
       </c>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -627,8 +716,10 @@
         <f>G14/G11</f>
         <v>9.2772384034519942E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D15" s="3"/>
       <c r="F15" t="s">
         <v>22</v>
       </c>
@@ -643,8 +734,454 @@
         <f>SQRT(SUMSQ(G15/G11,G14*G12/G11^2))</f>
         <v>1.6654341797225545E-3</v>
       </c>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20">
+        <v>0.02</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20">
+        <f>I29/I23</f>
+        <v>5324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2.5</v>
+      </c>
+      <c r="B21">
+        <v>0.5</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <f>A21/$L$20</f>
+        <v>4.695717505634861E-4</v>
+      </c>
+      <c r="F21" s="1">
+        <f>SQRT(SUMSQ(B21/$L$20,A21*$L$21/$L$20^2))</f>
+        <v>2.5287251493685527E-4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="4">
+        <f>SQRT(SUMSQ(I30/I23,I29*I24/I23^2))</f>
+        <v>2662.0047426704559</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>0.5</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" ref="E22:E28" si="0">A22/$L$20</f>
+        <v>7.513148009015778E-4</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" ref="F22:F28" si="1">SQRT(SUMSQ(B22/$L$20,A22*$L$21/$L$20^2))</f>
+        <v>3.8721943457139889E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>5.5</v>
+      </c>
+      <c r="B23">
+        <v>0.5</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0330578512396695E-3</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>5.24998082700828E-4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23">
+        <f>0.02</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>7.3</v>
+      </c>
+      <c r="B24">
+        <v>0.5</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3711495116453794E-3</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>6.9197855873389487E-4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>0.5</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6904583020285499E-3</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>8.5043210693455825E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>0.5</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8782870022539444E-3</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>9.4382920256341264E-4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>11.5</v>
+      </c>
+      <c r="B27">
+        <v>0.5</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>2.160030052592036E-3</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0840924861205482E-3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>13.3</v>
+      </c>
+      <c r="B28">
+        <v>0.5</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4981217129977462E-3</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2525887144618035E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="4">
+        <f>I26-I23</f>
+        <v>106.48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="4">
+        <f>SQRT(SUMSQ(I27,I24))</f>
+        <v>0.10049875621120891</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <v>0.1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>0.1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37">
+        <v>0.1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <f>1/B33-1/B36</f>
+        <v>-0.18478260869565222</v>
+      </c>
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40">
+        <f>1/B33-1/E36</f>
+        <v>0.13636363636363635</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <f>SQRT(SUMSQ(B34/B33^2,B37/B36^2))</f>
+        <v>1.9910004482562176E-2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41">
+        <f>SQRT(SUMSQ(E37/E36^2,B34/B33^2))</f>
+        <v>6.3820069977055327E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4">
+        <f>1/B40</f>
+        <v>-5.4117647058823515</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="4">
+        <f>1/E40</f>
+        <v>7.3333333333333339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4">
+        <f>B41/B40^2</f>
+        <v>0.58310822816749552</v>
+      </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="4">
+        <f>E41/E40^2</f>
+        <v>0.34321015409883093</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A19:L19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F58CEE-4D8D-4F39-846E-B5EB85491FE4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/4.3.5/hol.xlsx
+++ b/4.3.5/hol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MIPT\Labs\PhysLabs4\4.3.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1D39AE-F998-435E-B94B-28C4FF59D81A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE51D19-79AA-46B2-88BE-CFEC1D9FDBA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>\Delta x</t>
   </si>
@@ -164,6 +164,18 @@
   </si>
   <si>
     <t>real O_3</t>
+  </si>
+  <si>
+    <t>Пункт 4</t>
+  </si>
+  <si>
+    <t>d_O_2</t>
+  </si>
+  <si>
+    <t>1/r_O2</t>
+  </si>
+  <si>
+    <t>r_O_2</t>
   </si>
 </sst>
 </file>
@@ -197,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -205,11 +217,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -221,6 +248,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -501,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1032,136 +1061,336 @@
         <v>0.10049875621120891</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="7">
         <v>4</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="7">
         <v>115</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="7">
         <v>0.1</v>
       </c>
-      <c r="D34" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D36" t="s">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="7">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G36" t="s">
+      <c r="F36" s="7"/>
+      <c r="G36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="7">
         <v>104</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="7">
         <v>0.1</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="7">
         <v>0.1</v>
       </c>
-      <c r="G37" t="s">
+      <c r="F37" s="7"/>
+      <c r="G37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="7">
         <f>1/B33-1/B36</f>
         <v>-0.18478260869565222</v>
       </c>
-      <c r="D40" t="s">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="7">
         <f>1/B33-1/E36</f>
         <v>0.13636363636363635</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="7">
         <f>SQRT(SUMSQ(B34/B33^2,B37/B36^2))</f>
         <v>1.9910004482562176E-2</v>
       </c>
-      <c r="D41" t="s">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="7">
         <f>SQRT(SUMSQ(E37/E36^2,B34/B33^2))</f>
         <v>6.3820069977055327E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="8">
         <f>1/B40</f>
         <v>-5.4117647058823515</v>
       </c>
-      <c r="D43" t="s">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="8">
         <f>1/E40</f>
         <v>7.3333333333333339</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="8">
         <f>B41/B40^2</f>
         <v>0.58310822816749552</v>
       </c>
-      <c r="D44" t="s">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="8">
         <f>E41/E40^2</f>
         <v>0.34321015409883093</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <f>1/B33-1/B47</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51">
+        <f>SQRT(SUMSQ(B34/B33^2,B48/B47^2))</f>
+        <v>2.5769410160110383E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="4">
+        <f>1/B50</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="4">
+        <f>B51/B50^2</f>
+        <v>0.41231056256176613</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="2">
+        <f>B60-B57</f>
+        <v>108.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="2">
+        <f>SQRT(SUMSQ(B61,B58))</f>
+        <v>0.14142135623730953</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/4.3.5/hol.xlsx
+++ b/4.3.5/hol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!MIPT\Labs\PhysLabs4\4.3.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE51D19-79AA-46B2-88BE-CFEC1D9FDBA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082D3769-6A61-457B-B6AC-FF532DD9C590}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>\Delta x</t>
   </si>
@@ -176,6 +176,24 @@
   </si>
   <si>
     <t>r_O_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m </t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>mm</t>
   </si>
 </sst>
 </file>
@@ -265,6 +283,964 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.31564829396325461"/>
+                  <c:y val="8.8622776319626714E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>A!$L$33:$L$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>A!$O$33:$O$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.6900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.61E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4099999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17639999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20250000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D75-4977-BC58-1F003A43AE05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="369772863"/>
+        <c:axId val="369774111"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="369772863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369774111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="369774111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369772863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6E0CAF1-7D27-45D4-9E46-22ECB779F6C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,15 +1506,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="L30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AB41" sqref="AB41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -668,6 +1645,9 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="K9" s="3"/>
     </row>
@@ -678,6 +1658,10 @@
       <c r="B10">
         <f>0.0000532</f>
         <v>5.3199999999999999E-5</v>
+      </c>
+      <c r="C10">
+        <f>B10*10</f>
+        <v>5.3200000000000003E-4</v>
       </c>
       <c r="D10" s="3"/>
       <c r="K10" s="3"/>
@@ -780,7 +1764,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
@@ -796,7 +1780,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -829,7 +1813,7 @@
         <v>5324</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2.5</v>
       </c>
@@ -864,7 +1848,7 @@
         <v>2662.0047426704559</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
@@ -886,7 +1870,7 @@
         <v>3.8721943457139889E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5.5</v>
       </c>
@@ -915,7 +1899,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>7.3</v>
       </c>
@@ -943,7 +1927,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>9</v>
       </c>
@@ -965,7 +1949,7 @@
         <v>8.5043210693455825E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>10</v>
       </c>
@@ -993,7 +1977,7 @@
         <v>106.5</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>11.5</v>
       </c>
@@ -1021,7 +2005,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>13.3</v>
       </c>
@@ -1043,7 +2027,7 @@
         <v>1.2525887144618035E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H29" t="s">
         <v>17</v>
       </c>
@@ -1052,7 +2036,7 @@
         <v>106.48</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H30" t="s">
         <v>18</v>
       </c>
@@ -1061,7 +2045,7 @@
         <v>0.10049875621120891</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1071,8 +2055,20 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L32" t="s">
+        <v>50</v>
+      </c>
+      <c r="M32" t="s">
+        <v>51</v>
+      </c>
+      <c r="N32" t="s">
+        <v>23</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>12</v>
       </c>
@@ -1090,8 +2086,21 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N33">
+        <v>0.13</v>
+      </c>
+      <c r="O33" s="2">
+        <f>N33*N33</f>
+        <v>1.6900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>14</v>
       </c>
@@ -1109,8 +2118,21 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>3.3</v>
+      </c>
+      <c r="N34">
+        <v>0.19</v>
+      </c>
+      <c r="O34" s="2">
+        <f t="shared" ref="O34:O41" si="2">N34*N34</f>
+        <v>3.61E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1120,8 +2142,21 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>4.2</v>
+      </c>
+      <c r="N35">
+        <v>0.24</v>
+      </c>
+      <c r="O35" s="2">
+        <f t="shared" si="2"/>
+        <v>5.7599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
@@ -1143,8 +2178,21 @@
         <v>104</v>
       </c>
       <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <v>5</v>
+      </c>
+      <c r="N36">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O36" s="2">
+        <f t="shared" si="2"/>
+        <v>8.4099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>38</v>
       </c>
@@ -1166,8 +2214,21 @@
         <v>0.1</v>
       </c>
       <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <v>5.4</v>
+      </c>
+      <c r="N37">
+        <v>0.32</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1024</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1177,8 +2238,21 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>6</v>
+      </c>
+      <c r="M38">
+        <v>6</v>
+      </c>
+      <c r="N38">
+        <v>0.35</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" si="2"/>
+        <v>0.12249999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1188,8 +2262,21 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>7</v>
+      </c>
+      <c r="M39">
+        <v>6.7</v>
+      </c>
+      <c r="N39">
+        <v>0.39</v>
+      </c>
+      <c r="O39" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15210000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>42</v>
       </c>
@@ -1209,8 +2296,21 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>8</v>
+      </c>
+      <c r="M40">
+        <v>7.2</v>
+      </c>
+      <c r="N40">
+        <v>0.42</v>
+      </c>
+      <c r="O40" s="2">
+        <f t="shared" si="2"/>
+        <v>0.17639999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>38</v>
       </c>
@@ -1230,8 +2330,21 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <v>9</v>
+      </c>
+      <c r="M41">
+        <v>7.6</v>
+      </c>
+      <c r="N41">
+        <v>0.45</v>
+      </c>
+      <c r="O41" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20250000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1242,7 +2355,7 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>41</v>
       </c>
@@ -1263,7 +2376,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>43</v>
       </c>
@@ -1286,15 +2399,30 @@
       </c>
       <c r="I44" s="7"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M46" t="s">
+        <v>53</v>
+      </c>
+      <c r="N46">
+        <v>2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N47">
+        <f>N46/C10</f>
+        <v>43.609022556390975</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -1400,6 +2528,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
